--- a/data/trans_bre/P5_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>-5,28%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 6,17</t>
+          <t>-9,17; 12,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 4,92</t>
+          <t>-16,03; 7,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 17,3</t>
+          <t>-20,52; 39,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 13,74</t>
+          <t>-32,82; 23,25</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,09%</t>
+          <t>-19,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>-19,01%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 0,94</t>
+          <t>-22,12; 0,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 5,33</t>
+          <t>-22,37; 0,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 2,01</t>
+          <t>-35,05; 1,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 11,67</t>
+          <t>-34,97; 1,12</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>-7,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>-19,74%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 20,94</t>
+          <t>-35,74; 24,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 16,12</t>
+          <t>-41,09; 16,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 48,84</t>
+          <t>-50,68; 71,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 35,64</t>
+          <t>-54,46; 41,14</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>-13,99%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 1,82</t>
+          <t>-12,06; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 1,75</t>
+          <t>-15,0; 1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 4,69</t>
+          <t>-23,05; 8,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 3,95</t>
+          <t>-27,2; 2,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,28%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.467429400558196</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8197454950730931</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.03963329324609092</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.02142201338243612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 12,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,03; 7,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,52; 39,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-32,82; 23,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.174856528765691</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.42704091765242</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2052250666147534</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.258797634555787</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.15527795523422</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.976678953399</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3912268109756146</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.340099889340096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-10,98</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-10,98</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-19,08%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-22,12; 0,62</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-22,37; 0,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-35,05; 1,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,97; 1,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.9795309670599</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.56690925389489</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1907676425533952</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1673308963803656</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,95%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-19,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-22.12477183541373</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-21.53620364991007</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3504768878209223</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3365719036690221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-35,74; 24,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-41,09; 16,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-50,68; 71,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-54,46; 41,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.6156043142558</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.896728914555136</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.01135692996131841</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.03980098283752248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,37%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.453785016160017</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-13.95099736058655</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.07951998848653308</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2218994215063413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 3,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,0; 1,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-23,05; 8,47</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-27,2; 2,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-35.7402457672486</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-42.58034758178508</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5068381834062861</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5722497580638559</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.43947174947542</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.53528291381212</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.7123002039176739</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3281913131409642</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.444271290079521</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.219218701109584</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.09368268402797286</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1071709398355296</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.06103197903074</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.36156614598825</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2305330439554937</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2507112078531973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.702569972644348</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.842120090871571</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.08472967496625286</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.06517960822714523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
